--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.008241764903273909</v>
+        <v>-0.0258731143856077</v>
       </c>
       <c r="C2">
-        <v>0.9005865145151589</v>
+        <v>0.8712523508600251</v>
       </c>
       <c r="D2">
-        <v>1.426215343256045</v>
+        <v>1.357352004991913</v>
       </c>
       <c r="E2">
-        <v>1.19424258141135</v>
+        <v>1.165054507305093</v>
       </c>
       <c r="F2">
-        <v>1.22883621409498</v>
+        <v>1.196684520570948</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.08266274255926837</v>
+        <v>-0.05889625796533703</v>
       </c>
       <c r="C3">
-        <v>0.8065660165789966</v>
+        <v>0.7809309034430243</v>
       </c>
       <c r="D3">
-        <v>1.567347393100159</v>
+        <v>1.486890174830229</v>
       </c>
       <c r="E3">
-        <v>1.251937455746156</v>
+        <v>1.219381062191073</v>
       </c>
       <c r="F3">
-        <v>1.28765150782288</v>
+        <v>1.25326832255184</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.01556159382986697</v>
+        <v>-0.03036361610786248</v>
       </c>
       <c r="C4">
-        <v>0.7987652546546569</v>
+        <v>0.7674964733547235</v>
       </c>
       <c r="D4">
-        <v>1.014484117020457</v>
+        <v>0.9590082094163144</v>
       </c>
       <c r="E4">
-        <v>1.007216023016144</v>
+        <v>0.9792896453125165</v>
       </c>
       <c r="F4">
-        <v>1.040124071480158</v>
+        <v>1.008943334136136</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1040245185141735</v>
+        <v>0.09993964655644642</v>
       </c>
       <c r="C5">
-        <v>0.665068722777882</v>
+        <v>0.6259185880536732</v>
       </c>
       <c r="D5">
-        <v>0.9547807164809711</v>
+        <v>0.8952003656645542</v>
       </c>
       <c r="E5">
-        <v>0.9771288126347371</v>
+        <v>0.9461502870393024</v>
       </c>
       <c r="F5">
-        <v>1.005676539891465</v>
+        <v>0.9717132266730971</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.05056983497622123</v>
+        <v>0.03831129326750842</v>
       </c>
       <c r="C6">
-        <v>0.7533041372827639</v>
+        <v>0.7119710808408777</v>
       </c>
       <c r="D6">
-        <v>1.155906626208367</v>
+        <v>1.080030924484957</v>
       </c>
       <c r="E6">
-        <v>1.075130980954584</v>
+        <v>1.039245362984583</v>
       </c>
       <c r="F6">
-        <v>1.114481267813169</v>
+        <v>1.074989951428016</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.09571802959940674</v>
+        <v>0.09938456961952043</v>
       </c>
       <c r="C7">
-        <v>0.7833278533012857</v>
+        <v>0.7378794059141224</v>
       </c>
       <c r="D7">
-        <v>1.676744477845763</v>
+        <v>1.55852155670565</v>
       </c>
       <c r="E7">
-        <v>1.29489168575822</v>
+        <v>1.248407608397854</v>
       </c>
       <c r="F7">
-        <v>1.344078773005257</v>
+        <v>1.291421985981127</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1050981748916922</v>
+        <v>0.06981294092732569</v>
       </c>
       <c r="C8">
-        <v>0.5955360814495445</v>
+        <v>0.5769263726184313</v>
       </c>
       <c r="D8">
-        <v>0.6752999690170736</v>
+        <v>0.6329722743072022</v>
       </c>
       <c r="E8">
-        <v>0.8217663713106503</v>
+        <v>0.7955955469377655</v>
       </c>
       <c r="F8">
-        <v>0.8512585395015861</v>
+        <v>0.8248878488730877</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.257669570954862</v>
+        <v>0.2198501169052137</v>
       </c>
       <c r="C9">
-        <v>0.9356230281447285</v>
+        <v>0.8740014322694108</v>
       </c>
       <c r="D9">
-        <v>1.671933481709553</v>
+        <v>1.535812380474684</v>
       </c>
       <c r="E9">
-        <v>1.293032668461843</v>
+        <v>1.239278976048042</v>
       </c>
       <c r="F9">
-        <v>1.328944641926382</v>
+        <v>1.273853840583311</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1431019698275239</v>
+        <v>0.1257302919151607</v>
       </c>
       <c r="C10">
-        <v>0.8617429831510975</v>
+        <v>0.7877651198835861</v>
       </c>
       <c r="D10">
-        <v>1.076848645351405</v>
+        <v>0.9791626505880603</v>
       </c>
       <c r="E10">
-        <v>1.037713180677303</v>
+        <v>0.9895264779620908</v>
       </c>
       <c r="F10">
-        <v>1.083395111870748</v>
+        <v>1.029412453155336</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2907548024436459</v>
+        <v>0.2215020228704644</v>
       </c>
       <c r="C11">
-        <v>0.8552775153934911</v>
+        <v>0.8099270631829588</v>
       </c>
       <c r="D11">
-        <v>1.220318949943826</v>
+        <v>1.114429208763017</v>
       </c>
       <c r="E11">
-        <v>1.104680474138937</v>
+        <v>1.055665292014006</v>
       </c>
       <c r="F11">
-        <v>1.130377445435707</v>
+        <v>1.08799819374202</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0258731143856077</v>
+        <v>-0.05889625796533703</v>
       </c>
       <c r="C2">
-        <v>0.8712523508600251</v>
+        <v>0.7809309034430243</v>
       </c>
       <c r="D2">
-        <v>1.357352004991913</v>
+        <v>1.486890174830229</v>
       </c>
       <c r="E2">
-        <v>1.165054507305093</v>
+        <v>1.219381062191073</v>
       </c>
       <c r="F2">
-        <v>1.196684520570948</v>
+        <v>1.25326832255184</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05889625796533703</v>
+        <v>-0.03036361610786248</v>
       </c>
       <c r="C3">
-        <v>0.7809309034430243</v>
+        <v>0.7674964733547235</v>
       </c>
       <c r="D3">
-        <v>1.486890174830229</v>
+        <v>0.9590082094163144</v>
       </c>
       <c r="E3">
-        <v>1.219381062191073</v>
+        <v>0.9792896453125165</v>
       </c>
       <c r="F3">
-        <v>1.25326832255184</v>
+        <v>1.008943334136136</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03036361610786248</v>
+        <v>0.09993964655644642</v>
       </c>
       <c r="C4">
-        <v>0.7674964733547235</v>
+        <v>0.6259185880536732</v>
       </c>
       <c r="D4">
-        <v>0.9590082094163144</v>
+        <v>0.8952003656645542</v>
       </c>
       <c r="E4">
-        <v>0.9792896453125165</v>
+        <v>0.9461502870393024</v>
       </c>
       <c r="F4">
-        <v>1.008943334136136</v>
+        <v>0.9717132266730971</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.09993964655644642</v>
+        <v>0.03831129326750842</v>
       </c>
       <c r="C5">
-        <v>0.6259185880536732</v>
+        <v>0.7119710808408777</v>
       </c>
       <c r="D5">
-        <v>0.8952003656645542</v>
+        <v>1.080030924484957</v>
       </c>
       <c r="E5">
-        <v>0.9461502870393024</v>
+        <v>1.039245362984583</v>
       </c>
       <c r="F5">
-        <v>0.9717132266730971</v>
+        <v>1.074989951428016</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03831129326750842</v>
+        <v>0.09938456961952043</v>
       </c>
       <c r="C6">
-        <v>0.7119710808408777</v>
+        <v>0.7378794059141224</v>
       </c>
       <c r="D6">
-        <v>1.080030924484957</v>
+        <v>1.55852155670565</v>
       </c>
       <c r="E6">
-        <v>1.039245362984583</v>
+        <v>1.248407608397854</v>
       </c>
       <c r="F6">
-        <v>1.074989951428016</v>
+        <v>1.291421985981127</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.09938456961952043</v>
+        <v>0.06981294092732569</v>
       </c>
       <c r="C7">
-        <v>0.7378794059141224</v>
+        <v>0.5769263726184313</v>
       </c>
       <c r="D7">
-        <v>1.55852155670565</v>
+        <v>0.6329722743072022</v>
       </c>
       <c r="E7">
-        <v>1.248407608397854</v>
+        <v>0.7955955469377655</v>
       </c>
       <c r="F7">
-        <v>1.291421985981127</v>
+        <v>0.8248878488730877</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.06981294092732569</v>
+        <v>0.2198501169052137</v>
       </c>
       <c r="C8">
-        <v>0.5769263726184313</v>
+        <v>0.8740014322694108</v>
       </c>
       <c r="D8">
-        <v>0.6329722743072022</v>
+        <v>1.535812380474684</v>
       </c>
       <c r="E8">
-        <v>0.7955955469377655</v>
+        <v>1.239278976048042</v>
       </c>
       <c r="F8">
-        <v>0.8248878488730877</v>
+        <v>1.273853840583311</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2198501169052137</v>
+        <v>0.1257302919151607</v>
       </c>
       <c r="C9">
-        <v>0.8740014322694108</v>
+        <v>0.7877651198835861</v>
       </c>
       <c r="D9">
-        <v>1.535812380474684</v>
+        <v>0.9791626505880603</v>
       </c>
       <c r="E9">
-        <v>1.239278976048042</v>
+        <v>0.9895264779620908</v>
       </c>
       <c r="F9">
-        <v>1.273853840583311</v>
+        <v>1.029412453155336</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1257302919151607</v>
+        <v>0.2215020228704644</v>
       </c>
       <c r="C10">
-        <v>0.7877651198835861</v>
+        <v>0.8099270631829588</v>
       </c>
       <c r="D10">
-        <v>0.9791626505880603</v>
+        <v>1.114429208763017</v>
       </c>
       <c r="E10">
-        <v>0.9895264779620908</v>
+        <v>1.055665292014006</v>
       </c>
       <c r="F10">
-        <v>1.029412453155336</v>
+        <v>1.08799819374202</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2215020228704644</v>
+        <v>0.2277176327227284</v>
       </c>
       <c r="C11">
-        <v>0.8099270631829588</v>
+        <v>0.7851486816968395</v>
       </c>
       <c r="D11">
-        <v>1.114429208763017</v>
+        <v>0.9325366040153429</v>
       </c>
       <c r="E11">
-        <v>1.055665292014006</v>
+        <v>0.9656793484461303</v>
       </c>
       <c r="F11">
-        <v>1.08799819374202</v>
+        <v>0.995372515309124</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_first_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_first_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.05889625796533703</v>
+        <v>-0.0258731143856077</v>
       </c>
       <c r="C2">
-        <v>0.7809309034430243</v>
+        <v>0.8712523508600251</v>
       </c>
       <c r="D2">
-        <v>1.486890174830229</v>
+        <v>1.357352004991913</v>
       </c>
       <c r="E2">
-        <v>1.219381062191073</v>
+        <v>1.165054507305093</v>
       </c>
       <c r="F2">
-        <v>1.25326832255184</v>
+        <v>1.196684520570948</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03036361610786248</v>
+        <v>-0.05889625796533703</v>
       </c>
       <c r="C3">
-        <v>0.7674964733547235</v>
+        <v>0.7809309034430243</v>
       </c>
       <c r="D3">
-        <v>0.9590082094163144</v>
+        <v>1.486890174830229</v>
       </c>
       <c r="E3">
-        <v>0.9792896453125165</v>
+        <v>1.219381062191073</v>
       </c>
       <c r="F3">
-        <v>1.008943334136136</v>
+        <v>1.25326832255184</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.09993964655644642</v>
+        <v>-0.03036361610786248</v>
       </c>
       <c r="C4">
-        <v>0.6259185880536732</v>
+        <v>0.7674964733547235</v>
       </c>
       <c r="D4">
-        <v>0.8952003656645542</v>
+        <v>0.9590082094163144</v>
       </c>
       <c r="E4">
-        <v>0.9461502870393024</v>
+        <v>0.9792896453125165</v>
       </c>
       <c r="F4">
-        <v>0.9717132266730971</v>
+        <v>1.008943334136136</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.03831129326750842</v>
+        <v>0.09993964655644642</v>
       </c>
       <c r="C5">
-        <v>0.7119710808408777</v>
+        <v>0.6259185880536732</v>
       </c>
       <c r="D5">
-        <v>1.080030924484957</v>
+        <v>0.8952003656645542</v>
       </c>
       <c r="E5">
-        <v>1.039245362984583</v>
+        <v>0.9461502870393024</v>
       </c>
       <c r="F5">
-        <v>1.074989951428016</v>
+        <v>0.9717132266730971</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09938456961952043</v>
+        <v>0.03831129326750842</v>
       </c>
       <c r="C6">
-        <v>0.7378794059141224</v>
+        <v>0.7119710808408777</v>
       </c>
       <c r="D6">
-        <v>1.55852155670565</v>
+        <v>1.080030924484957</v>
       </c>
       <c r="E6">
-        <v>1.248407608397854</v>
+        <v>1.039245362984583</v>
       </c>
       <c r="F6">
-        <v>1.291421985981127</v>
+        <v>1.074989951428016</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.06981294092732569</v>
+        <v>0.09938456961952043</v>
       </c>
       <c r="C7">
-        <v>0.5769263726184313</v>
+        <v>0.7378794059141224</v>
       </c>
       <c r="D7">
-        <v>0.6329722743072022</v>
+        <v>1.55852155670565</v>
       </c>
       <c r="E7">
-        <v>0.7955955469377655</v>
+        <v>1.248407608397854</v>
       </c>
       <c r="F7">
-        <v>0.8248878488730877</v>
+        <v>1.291421985981127</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2198501169052137</v>
+        <v>0.06981294092732569</v>
       </c>
       <c r="C8">
-        <v>0.8740014322694108</v>
+        <v>0.5769263726184313</v>
       </c>
       <c r="D8">
-        <v>1.535812380474684</v>
+        <v>0.6329722743072022</v>
       </c>
       <c r="E8">
-        <v>1.239278976048042</v>
+        <v>0.7955955469377655</v>
       </c>
       <c r="F8">
-        <v>1.273853840583311</v>
+        <v>0.8248878488730877</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1257302919151607</v>
+        <v>0.2198501169052137</v>
       </c>
       <c r="C9">
-        <v>0.7877651198835861</v>
+        <v>0.8740014322694108</v>
       </c>
       <c r="D9">
-        <v>0.9791626505880603</v>
+        <v>1.535812380474684</v>
       </c>
       <c r="E9">
-        <v>0.9895264779620908</v>
+        <v>1.239278976048042</v>
       </c>
       <c r="F9">
-        <v>1.029412453155336</v>
+        <v>1.273853840583311</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2215020228704644</v>
+        <v>0.1257302919151607</v>
       </c>
       <c r="C10">
-        <v>0.8099270631829588</v>
+        <v>0.7877651198835861</v>
       </c>
       <c r="D10">
-        <v>1.114429208763017</v>
+        <v>0.9791626505880603</v>
       </c>
       <c r="E10">
-        <v>1.055665292014006</v>
+        <v>0.9895264779620908</v>
       </c>
       <c r="F10">
-        <v>1.08799819374202</v>
+        <v>1.029412453155336</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2277176327227284</v>
+        <v>0.2215020228704644</v>
       </c>
       <c r="C11">
-        <v>0.7851486816968395</v>
+        <v>0.8099270631829588</v>
       </c>
       <c r="D11">
-        <v>0.9325366040153429</v>
+        <v>1.114429208763017</v>
       </c>
       <c r="E11">
-        <v>0.9656793484461303</v>
+        <v>1.055665292014006</v>
       </c>
       <c r="F11">
-        <v>0.995372515309124</v>
+        <v>1.08799819374202</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
